--- a/public/file_templates/Template Produk.xlsx
+++ b/public/file_templates/Template Produk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\menyambang\public\file_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4A17C1-BCBE-48D2-A41A-F58BEC11BB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990198EE-99B7-41E7-B188-D7283401EB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>Nama Produk</t>
   </si>
   <si>
-    <t>ID Produk</t>
+    <t>Stok</t>
   </si>
   <si>
-    <t>Stok</t>
+    <t>Kode Produk</t>
   </si>
 </sst>
 </file>
@@ -106,17 +106,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,15 +403,15 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -419,21 +422,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -442,14 +445,14 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">

--- a/public/file_templates/Template Produk.xlsx
+++ b/public/file_templates/Template Produk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\menyambang\public\file_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990198EE-99B7-41E7-B188-D7283401EB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EB4BFC-509F-44E4-A940-7A3373A63B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Kode Produk</t>
+  </si>
+  <si>
+    <t>Harga Barang</t>
   </si>
 </sst>
 </file>
@@ -114,11 +117,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,7 +406,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +415,7 @@
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="86.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
@@ -422,12 +425,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -445,14 +448,17 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
